--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.122548</v>
+      </c>
+      <c r="H2">
+        <v>0.367644</v>
+      </c>
+      <c r="I2">
+        <v>0.4789089061706202</v>
+      </c>
+      <c r="J2">
+        <v>0.4789089061706202</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.08313</v>
-      </c>
-      <c r="H2">
-        <v>0.24939</v>
-      </c>
-      <c r="I2">
-        <v>0.3949919224555735</v>
-      </c>
-      <c r="J2">
-        <v>0.3949919224555735</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>19.77419933333333</v>
+        <v>0.051307</v>
       </c>
       <c r="N2">
-        <v>59.322598</v>
+        <v>0.153921</v>
       </c>
       <c r="O2">
-        <v>0.9359682641766119</v>
+        <v>0.04260998881052132</v>
       </c>
       <c r="P2">
-        <v>0.9359682641766121</v>
+        <v>0.04260998881052132</v>
       </c>
       <c r="Q2">
-        <v>1.64382919058</v>
+        <v>0.006287570236</v>
       </c>
       <c r="R2">
-        <v>14.79446271522</v>
+        <v>0.056588132124</v>
       </c>
       <c r="S2">
-        <v>0.3696999040245261</v>
+        <v>0.02040630313318913</v>
       </c>
       <c r="T2">
-        <v>0.3696999040245261</v>
+        <v>0.02040630313318913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08313</v>
+        <v>0.122548</v>
       </c>
       <c r="H3">
-        <v>0.24939</v>
+        <v>0.367644</v>
       </c>
       <c r="I3">
-        <v>0.3949919224555735</v>
+        <v>0.4789089061706202</v>
       </c>
       <c r="J3">
-        <v>0.3949919224555735</v>
+        <v>0.4789089061706202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>3.458401</v>
       </c>
       <c r="O3">
-        <v>0.05456527006448132</v>
+        <v>0.9573900111894786</v>
       </c>
       <c r="P3">
-        <v>0.05456527006448132</v>
+        <v>0.9573900111894786</v>
       </c>
       <c r="Q3">
-        <v>0.09583229171</v>
+        <v>0.1412733752493333</v>
       </c>
       <c r="R3">
-        <v>0.8624906253900001</v>
+        <v>1.271460377244</v>
       </c>
       <c r="S3">
-        <v>0.02155284092207703</v>
+        <v>0.4585026030374311</v>
       </c>
       <c r="T3">
-        <v>0.02155284092207703</v>
+        <v>0.458502603037431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08313</v>
+        <v>0.133342</v>
       </c>
       <c r="H4">
-        <v>0.24939</v>
+        <v>0.400026</v>
       </c>
       <c r="I4">
-        <v>0.3949919224555735</v>
+        <v>0.5210910938293798</v>
       </c>
       <c r="J4">
-        <v>0.3949919224555735</v>
+        <v>0.5210910938293798</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.199998</v>
+        <v>0.051307</v>
       </c>
       <c r="N4">
-        <v>0.599994</v>
+        <v>0.153921</v>
       </c>
       <c r="O4">
-        <v>0.009466465758906617</v>
+        <v>0.04260998881052132</v>
       </c>
       <c r="P4">
-        <v>0.009466465758906617</v>
+        <v>0.04260998881052132</v>
       </c>
       <c r="Q4">
-        <v>0.01662583374</v>
+        <v>0.006841377994</v>
       </c>
       <c r="R4">
-        <v>0.14963250366</v>
+        <v>0.061572401946</v>
       </c>
       <c r="S4">
-        <v>0.003739177508970384</v>
+        <v>0.02220368567733219</v>
       </c>
       <c r="T4">
-        <v>0.003739177508970384</v>
+        <v>0.02220368567733219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,170 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.12733</v>
+        <v>0.133342</v>
       </c>
       <c r="H5">
-        <v>0.38199</v>
+        <v>0.400026</v>
       </c>
       <c r="I5">
-        <v>0.6050080775444265</v>
+        <v>0.5210910938293798</v>
       </c>
       <c r="J5">
-        <v>0.6050080775444264</v>
+        <v>0.5210910938293798</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>19.77419933333333</v>
+        <v>1.152800333333333</v>
       </c>
       <c r="N5">
-        <v>59.322598</v>
+        <v>3.458401</v>
       </c>
       <c r="O5">
-        <v>0.9359682641766119</v>
+        <v>0.9573900111894786</v>
       </c>
       <c r="P5">
-        <v>0.9359682641766121</v>
+        <v>0.9573900111894786</v>
       </c>
       <c r="Q5">
-        <v>2.517848801113333</v>
+        <v>0.1537167020473333</v>
       </c>
       <c r="R5">
-        <v>22.66063921002</v>
+        <v>1.383450318426</v>
       </c>
       <c r="S5">
-        <v>0.5662683601520859</v>
+        <v>0.4988874081520476</v>
       </c>
       <c r="T5">
-        <v>0.5662683601520859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.12733</v>
-      </c>
-      <c r="H6">
-        <v>0.38199</v>
-      </c>
-      <c r="I6">
-        <v>0.6050080775444265</v>
-      </c>
-      <c r="J6">
-        <v>0.6050080775444264</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.152800333333333</v>
-      </c>
-      <c r="N6">
-        <v>3.458401</v>
-      </c>
-      <c r="O6">
-        <v>0.05456527006448132</v>
-      </c>
-      <c r="P6">
-        <v>0.05456527006448132</v>
-      </c>
-      <c r="Q6">
-        <v>0.1467860664433333</v>
-      </c>
-      <c r="R6">
-        <v>1.32107459799</v>
-      </c>
-      <c r="S6">
-        <v>0.03301242914240429</v>
-      </c>
-      <c r="T6">
-        <v>0.03301242914240429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.12733</v>
-      </c>
-      <c r="H7">
-        <v>0.38199</v>
-      </c>
-      <c r="I7">
-        <v>0.6050080775444265</v>
-      </c>
-      <c r="J7">
-        <v>0.6050080775444264</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.199998</v>
-      </c>
-      <c r="N7">
-        <v>0.599994</v>
-      </c>
-      <c r="O7">
-        <v>0.009466465758906617</v>
-      </c>
-      <c r="P7">
-        <v>0.009466465758906617</v>
-      </c>
-      <c r="Q7">
-        <v>0.02546574534</v>
-      </c>
-      <c r="R7">
-        <v>0.22919170806</v>
-      </c>
-      <c r="S7">
-        <v>0.005727288249936233</v>
-      </c>
-      <c r="T7">
-        <v>0.005727288249936232</v>
+        <v>0.4988874081520476</v>
       </c>
     </row>
   </sheetData>
